--- a/GetAgent Docs/טבלה צהובה סופי.xlsx
+++ b/GetAgent Docs/טבלה צהובה סופי.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\getAgent\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\www\Self Projects\GetAgent\GetAgent Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{709AD31D-D62F-404B-842D-0567E97E7FE5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94B62449-C102-4B20-8933-F0EAABE5E279}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2868" yWindow="1716" windowWidth="17280" windowHeight="7296" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="דרישות" sheetId="1" r:id="rId1"/>
@@ -283,9 +283,6 @@
     <t>לחיצה על לינק 'איפוס סיסמה' בחלון ההתחברות תקפיץ את חלון 'איפוס סיסמה'</t>
   </si>
   <si>
-    <t>לחיצה על לינק 'הרשמה' בחלון ההתחברות תקפיץ את חלון 'הרשמה'</t>
-  </si>
-  <si>
     <t>בכל חשבון אפשר לפתוח פרופיל סוכן, למעט חשבון שכבר יש לו פרופיל סוכן</t>
   </si>
   <si>
@@ -860,6 +857,9 @@
   </si>
   <si>
     <t>בדף עריכת נכס יוצג מקש 'שמירה' אשר ישמור את השינויים במידה והשינויים תקינים.</t>
+  </si>
+  <si>
+    <t>לחיצה על לינק 'הרשמה' בחלון ההתחברות תגרום למעבר לדף 'הרשמה'</t>
   </si>
 </sst>
 </file>
@@ -1597,9 +1597,9 @@
   </sheetPr>
   <dimension ref="A1:I222"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A191" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A218" sqref="A218"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="5" topLeftCell="A86" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B101" sqref="B101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -1676,7 +1676,7 @@
         <v>37</v>
       </c>
       <c r="I4" s="30" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="5" spans="1:9" s="3" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1800,7 +1800,7 @@
         <v>6</v>
       </c>
       <c r="B11" s="24" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C11" s="19" t="s">
         <v>33</v>
@@ -1819,7 +1819,7 @@
         <v>7</v>
       </c>
       <c r="B12" s="22" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C12" s="19" t="s">
         <v>33</v>
@@ -2131,7 +2131,7 @@
         <v>23</v>
       </c>
       <c r="B28" s="22" t="s">
-        <v>70</v>
+        <v>262</v>
       </c>
       <c r="C28" s="19" t="s">
         <v>39</v>
@@ -2340,7 +2340,7 @@
         <v>34</v>
       </c>
       <c r="B39" s="22" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C39" s="19" t="s">
         <v>39</v>
@@ -2361,7 +2361,7 @@
         <v>35</v>
       </c>
       <c r="B40" s="22" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C40" s="19" t="s">
         <v>39</v>
@@ -2380,7 +2380,7 @@
         <v>36</v>
       </c>
       <c r="B41" s="22" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C41" s="19" t="s">
         <v>39</v>
@@ -2401,7 +2401,7 @@
         <v>37</v>
       </c>
       <c r="B42" s="22" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C42" s="19" t="s">
         <v>39</v>
@@ -2420,7 +2420,7 @@
         <v>38</v>
       </c>
       <c r="B43" s="22" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C43" s="19" t="s">
         <v>39</v>
@@ -2441,7 +2441,7 @@
         <v>39</v>
       </c>
       <c r="B44" s="22" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C44" s="19" t="s">
         <v>39</v>
@@ -2460,7 +2460,7 @@
         <v>40</v>
       </c>
       <c r="B45" s="22" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C45" s="19" t="s">
         <v>39</v>
@@ -2481,7 +2481,7 @@
         <v>41</v>
       </c>
       <c r="B46" s="22" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C46" s="19" t="s">
         <v>39</v>
@@ -2500,7 +2500,7 @@
         <v>42</v>
       </c>
       <c r="B47" s="22" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C47" s="19" t="s">
         <v>39</v>
@@ -2521,7 +2521,7 @@
         <v>43</v>
       </c>
       <c r="B48" s="22" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C48" s="19" t="s">
         <v>39</v>
@@ -2542,7 +2542,7 @@
         <v>44</v>
       </c>
       <c r="B49" s="22" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C49" s="19" t="s">
         <v>39</v>
@@ -2561,7 +2561,7 @@
         <v>45</v>
       </c>
       <c r="B50" s="22" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C50" s="19" t="s">
         <v>39</v>
@@ -2580,7 +2580,7 @@
         <v>46</v>
       </c>
       <c r="B51" s="22" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C51" s="19" t="s">
         <v>39</v>
@@ -2601,7 +2601,7 @@
         <v>47</v>
       </c>
       <c r="B52" s="22" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C52" s="19" t="s">
         <v>39</v>
@@ -2622,7 +2622,7 @@
         <v>48</v>
       </c>
       <c r="B53" s="22" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C53" s="19" t="s">
         <v>39</v>
@@ -2643,7 +2643,7 @@
         <v>49</v>
       </c>
       <c r="B54" s="22" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C54" s="19" t="s">
         <v>39</v>
@@ -2662,7 +2662,7 @@
         <v>50</v>
       </c>
       <c r="B55" s="22" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C55" s="19" t="s">
         <v>39</v>
@@ -2683,7 +2683,7 @@
         <v>51</v>
       </c>
       <c r="B56" s="22" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C56" s="19" t="s">
         <v>39</v>
@@ -2704,7 +2704,7 @@
         <v>52</v>
       </c>
       <c r="B57" s="22" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C57" s="19" t="s">
         <v>39</v>
@@ -2725,7 +2725,7 @@
         <v>53</v>
       </c>
       <c r="B58" s="22" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C58" s="19" t="s">
         <v>39</v>
@@ -2744,7 +2744,7 @@
         <v>54</v>
       </c>
       <c r="B59" s="22" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C59" s="19" t="s">
         <v>39</v>
@@ -2763,7 +2763,7 @@
         <v>55</v>
       </c>
       <c r="B60" s="22" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C60" s="19" t="s">
         <v>39</v>
@@ -2782,7 +2782,7 @@
         <v>56</v>
       </c>
       <c r="B61" s="22" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C61" s="19" t="s">
         <v>39</v>
@@ -2803,7 +2803,7 @@
         <v>57</v>
       </c>
       <c r="B62" s="22" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C62" s="19" t="s">
         <v>39</v>
@@ -2822,7 +2822,7 @@
         <v>58</v>
       </c>
       <c r="B63" s="22" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C63" s="19" t="s">
         <v>39</v>
@@ -2841,7 +2841,7 @@
         <v>59</v>
       </c>
       <c r="B64" s="22" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C64" s="19" t="s">
         <v>39</v>
@@ -2860,7 +2860,7 @@
         <v>60</v>
       </c>
       <c r="B65" s="22" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C65" s="19" t="s">
         <v>39</v>
@@ -2881,7 +2881,7 @@
         <v>61</v>
       </c>
       <c r="B66" s="22" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C66" s="19" t="s">
         <v>39</v>
@@ -2902,7 +2902,7 @@
         <v>62</v>
       </c>
       <c r="B67" s="22" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C67" s="19" t="s">
         <v>39</v>
@@ -2921,7 +2921,7 @@
         <v>63</v>
       </c>
       <c r="B68" s="22" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C68" s="19" t="s">
         <v>39</v>
@@ -2942,7 +2942,7 @@
         <v>64</v>
       </c>
       <c r="B69" s="22" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C69" s="19" t="s">
         <v>39</v>
@@ -2961,7 +2961,7 @@
         <v>65</v>
       </c>
       <c r="B70" s="22" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C70" s="19" t="s">
         <v>39</v>
@@ -2980,7 +2980,7 @@
         <v>66</v>
       </c>
       <c r="B71" s="22" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C71" s="19" t="s">
         <v>39</v>
@@ -2999,7 +2999,7 @@
         <v>67</v>
       </c>
       <c r="B72" s="22" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C72" s="19" t="s">
         <v>39</v>
@@ -3018,7 +3018,7 @@
         <v>68</v>
       </c>
       <c r="B73" s="22" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C73" s="19" t="s">
         <v>39</v>
@@ -3039,7 +3039,7 @@
         <v>69</v>
       </c>
       <c r="B74" s="22" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C74" s="19" t="s">
         <v>39</v>
@@ -3060,7 +3060,7 @@
         <v>70</v>
       </c>
       <c r="B75" s="22" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C75" s="19" t="s">
         <v>39</v>
@@ -3081,7 +3081,7 @@
         <v>71</v>
       </c>
       <c r="B76" s="22" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C76" s="19" t="s">
         <v>39</v>
@@ -3100,7 +3100,7 @@
         <v>72</v>
       </c>
       <c r="B77" s="22" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C77" s="19" t="s">
         <v>39</v>
@@ -3119,7 +3119,7 @@
         <v>73</v>
       </c>
       <c r="B78" s="22" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C78" s="19" t="s">
         <v>39</v>
@@ -3138,7 +3138,7 @@
         <v>74</v>
       </c>
       <c r="B79" s="22" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C79" s="19" t="s">
         <v>39</v>
@@ -3157,7 +3157,7 @@
         <v>75</v>
       </c>
       <c r="B80" s="22" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C80" s="19" t="s">
         <v>39</v>
@@ -3176,7 +3176,7 @@
         <v>76</v>
       </c>
       <c r="B81" s="22" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C81" s="19" t="s">
         <v>39</v>
@@ -3195,7 +3195,7 @@
         <v>77</v>
       </c>
       <c r="B82" s="22" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C82" s="19" t="s">
         <v>39</v>
@@ -3214,7 +3214,7 @@
         <v>78</v>
       </c>
       <c r="B83" s="22" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C83" s="19" t="s">
         <v>39</v>
@@ -3233,7 +3233,7 @@
         <v>79</v>
       </c>
       <c r="B84" s="22" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C84" s="19" t="s">
         <v>39</v>
@@ -3252,7 +3252,7 @@
         <v>80</v>
       </c>
       <c r="B85" s="22" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C85" s="19" t="s">
         <v>39</v>
@@ -3271,7 +3271,7 @@
         <v>81</v>
       </c>
       <c r="B86" s="22" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C86" s="19" t="s">
         <v>39</v>
@@ -3290,7 +3290,7 @@
         <v>82</v>
       </c>
       <c r="B87" s="22" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C87" s="19" t="s">
         <v>39</v>
@@ -3309,7 +3309,7 @@
         <v>83</v>
       </c>
       <c r="B88" s="22" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C88" s="19" t="s">
         <v>39</v>
@@ -3330,7 +3330,7 @@
         <v>84</v>
       </c>
       <c r="B89" s="22" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C89" s="19" t="s">
         <v>39</v>
@@ -3351,7 +3351,7 @@
         <v>85</v>
       </c>
       <c r="B90" s="22" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C90" s="19" t="s">
         <v>39</v>
@@ -3370,7 +3370,7 @@
         <v>86</v>
       </c>
       <c r="B91" s="22" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C91" s="19" t="s">
         <v>39</v>
@@ -3389,7 +3389,7 @@
         <v>87</v>
       </c>
       <c r="B92" s="22" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C92" s="19" t="s">
         <v>39</v>
@@ -3408,7 +3408,7 @@
         <v>88</v>
       </c>
       <c r="B93" s="22" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C93" s="19" t="s">
         <v>39</v>
@@ -3427,7 +3427,7 @@
         <v>89</v>
       </c>
       <c r="B94" s="22" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C94" s="19" t="s">
         <v>39</v>
@@ -3446,7 +3446,7 @@
         <v>90</v>
       </c>
       <c r="B95" s="22" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C95" s="19" t="s">
         <v>39</v>
@@ -3465,7 +3465,7 @@
         <v>91</v>
       </c>
       <c r="B96" s="22" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C96" s="19" t="s">
         <v>39</v>
@@ -3484,7 +3484,7 @@
         <v>92</v>
       </c>
       <c r="B97" s="22" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C97" s="19" t="s">
         <v>39</v>
@@ -3503,7 +3503,7 @@
         <v>93</v>
       </c>
       <c r="B98" s="22" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C98" s="19" t="s">
         <v>39</v>
@@ -3522,7 +3522,7 @@
         <v>94</v>
       </c>
       <c r="B99" s="22" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C99" s="19" t="s">
         <v>39</v>
@@ -3541,7 +3541,7 @@
         <v>95</v>
       </c>
       <c r="B100" s="22" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C100" s="19" t="s">
         <v>39</v>
@@ -3560,7 +3560,7 @@
         <v>96</v>
       </c>
       <c r="B101" s="22" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C101" s="19" t="s">
         <v>39</v>
@@ -3579,7 +3579,7 @@
         <v>97</v>
       </c>
       <c r="B102" s="22" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C102" s="19" t="s">
         <v>39</v>
@@ -3598,7 +3598,7 @@
         <v>98</v>
       </c>
       <c r="B103" s="22" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C103" s="19" t="s">
         <v>39</v>
@@ -3619,7 +3619,7 @@
         <v>99</v>
       </c>
       <c r="B104" s="22" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C104" s="19" t="s">
         <v>39</v>
@@ -3638,7 +3638,7 @@
         <v>100</v>
       </c>
       <c r="B105" s="22" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C105" s="19" t="s">
         <v>39</v>
@@ -3657,7 +3657,7 @@
         <v>101</v>
       </c>
       <c r="B106" s="22" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C106" s="19" t="s">
         <v>39</v>
@@ -3676,7 +3676,7 @@
         <v>102</v>
       </c>
       <c r="B107" s="22" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C107" s="19" t="s">
         <v>39</v>
@@ -3695,7 +3695,7 @@
         <v>103</v>
       </c>
       <c r="B108" s="22" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C108" s="19" t="s">
         <v>39</v>
@@ -3714,7 +3714,7 @@
         <v>104</v>
       </c>
       <c r="B109" s="22" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C109" s="19" t="s">
         <v>39</v>
@@ -3733,7 +3733,7 @@
         <v>105</v>
       </c>
       <c r="B110" s="22" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C110" s="19" t="s">
         <v>39</v>
@@ -3752,7 +3752,7 @@
         <v>106</v>
       </c>
       <c r="B111" s="22" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C111" s="19" t="s">
         <v>39</v>
@@ -3771,7 +3771,7 @@
         <v>107</v>
       </c>
       <c r="B112" s="22" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C112" s="19" t="s">
         <v>39</v>
@@ -3790,10 +3790,10 @@
         <v>108</v>
       </c>
       <c r="B113" s="22" t="s">
+        <v>158</v>
+      </c>
+      <c r="C113" s="19" t="s">
         <v>159</v>
-      </c>
-      <c r="C113" s="19" t="s">
-        <v>160</v>
       </c>
       <c r="D113" s="20"/>
       <c r="E113" s="21" t="s">
@@ -3809,7 +3809,7 @@
         <v>109</v>
       </c>
       <c r="B114" s="22" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C114" s="19" t="s">
         <v>39</v>
@@ -3830,7 +3830,7 @@
         <v>110</v>
       </c>
       <c r="B115" s="22" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C115" s="19" t="s">
         <v>39</v>
@@ -3849,7 +3849,7 @@
         <v>111</v>
       </c>
       <c r="B116" s="22" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C116" s="19" t="s">
         <v>39</v>
@@ -3870,7 +3870,7 @@
         <v>112</v>
       </c>
       <c r="B117" s="22" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C117" s="19" t="s">
         <v>39</v>
@@ -3891,7 +3891,7 @@
         <v>113</v>
       </c>
       <c r="B118" s="22" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C118" s="19" t="s">
         <v>39</v>
@@ -3912,7 +3912,7 @@
         <v>114</v>
       </c>
       <c r="B119" s="22" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C119" s="19" t="s">
         <v>39</v>
@@ -3931,7 +3931,7 @@
         <v>115</v>
       </c>
       <c r="B120" s="22" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C120" s="19" t="s">
         <v>39</v>
@@ -3950,7 +3950,7 @@
         <v>116</v>
       </c>
       <c r="B121" s="22" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C121" s="19" t="s">
         <v>39</v>
@@ -3969,7 +3969,7 @@
         <v>117</v>
       </c>
       <c r="B122" s="22" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C122" s="19" t="s">
         <v>39</v>
@@ -3988,7 +3988,7 @@
         <v>118</v>
       </c>
       <c r="B123" s="22" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C123" s="19" t="s">
         <v>39</v>
@@ -4007,7 +4007,7 @@
         <v>119</v>
       </c>
       <c r="B124" s="22" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C124" s="19" t="s">
         <v>39</v>
@@ -4028,7 +4028,7 @@
         <v>120</v>
       </c>
       <c r="B125" s="22" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C125" s="19" t="s">
         <v>39</v>
@@ -4047,7 +4047,7 @@
         <v>121</v>
       </c>
       <c r="B126" s="22" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C126" s="19" t="s">
         <v>39</v>
@@ -4068,7 +4068,7 @@
         <v>122</v>
       </c>
       <c r="B127" s="22" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C127" s="19" t="s">
         <v>39</v>
@@ -4089,7 +4089,7 @@
         <v>123</v>
       </c>
       <c r="B128" s="22" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C128" s="19" t="s">
         <v>39</v>
@@ -4110,7 +4110,7 @@
         <v>124</v>
       </c>
       <c r="B129" s="22" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C129" s="19" t="s">
         <v>39</v>
@@ -4129,7 +4129,7 @@
         <v>125</v>
       </c>
       <c r="B130" s="22" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C130" s="19" t="s">
         <v>39</v>
@@ -4148,7 +4148,7 @@
         <v>126</v>
       </c>
       <c r="B131" s="22" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C131" s="19" t="s">
         <v>39</v>
@@ -4167,7 +4167,7 @@
         <v>127</v>
       </c>
       <c r="B132" s="22" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C132" s="19" t="s">
         <v>39</v>
@@ -4186,7 +4186,7 @@
         <v>128</v>
       </c>
       <c r="B133" s="22" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C133" s="19" t="s">
         <v>39</v>
@@ -4205,7 +4205,7 @@
         <v>129</v>
       </c>
       <c r="B134" s="22" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C134" s="19" t="s">
         <v>39</v>
@@ -4226,7 +4226,7 @@
         <v>130</v>
       </c>
       <c r="B135" s="22" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C135" s="19" t="s">
         <v>39</v>
@@ -4245,7 +4245,7 @@
         <v>131</v>
       </c>
       <c r="B136" s="22" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C136" s="19" t="s">
         <v>39</v>
@@ -4264,7 +4264,7 @@
         <v>132</v>
       </c>
       <c r="B137" s="22" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C137" s="19" t="s">
         <v>39</v>
@@ -4283,7 +4283,7 @@
         <v>133</v>
       </c>
       <c r="B138" s="22" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C138" s="19" t="s">
         <v>39</v>
@@ -4302,7 +4302,7 @@
         <v>134</v>
       </c>
       <c r="B139" s="22" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C139" s="19" t="s">
         <v>39</v>
@@ -4334,7 +4334,7 @@
         <v>136</v>
       </c>
       <c r="B141" s="22" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C141" s="19" t="s">
         <v>39</v>
@@ -4353,7 +4353,7 @@
         <v>137</v>
       </c>
       <c r="B142" s="22" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C142" s="19" t="s">
         <v>39</v>
@@ -4374,7 +4374,7 @@
         <v>138</v>
       </c>
       <c r="B143" s="22" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C143" s="19" t="s">
         <v>39</v>
@@ -4395,7 +4395,7 @@
         <v>139</v>
       </c>
       <c r="B144" s="22" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C144" s="19" t="s">
         <v>39</v>
@@ -4414,7 +4414,7 @@
         <v>140</v>
       </c>
       <c r="B145" s="22" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C145" s="19" t="s">
         <v>39</v>
@@ -4433,7 +4433,7 @@
         <v>141</v>
       </c>
       <c r="B146" s="22" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C146" s="19" t="s">
         <v>39</v>
@@ -4452,7 +4452,7 @@
         <v>142</v>
       </c>
       <c r="B147" s="22" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C147" s="19" t="s">
         <v>39</v>
@@ -4471,7 +4471,7 @@
         <v>143</v>
       </c>
       <c r="B148" s="22" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C148" s="19" t="s">
         <v>39</v>
@@ -4490,7 +4490,7 @@
         <v>144</v>
       </c>
       <c r="B149" s="22" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C149" s="19" t="s">
         <v>39</v>
@@ -4509,7 +4509,7 @@
         <v>145</v>
       </c>
       <c r="B150" s="22" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C150" s="19" t="s">
         <v>39</v>
@@ -4528,7 +4528,7 @@
         <v>146</v>
       </c>
       <c r="B151" s="22" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C151" s="19" t="s">
         <v>39</v>
@@ -4547,7 +4547,7 @@
         <v>147</v>
       </c>
       <c r="B152" s="22" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C152" s="19" t="s">
         <v>39</v>
@@ -4568,7 +4568,7 @@
         <v>148</v>
       </c>
       <c r="B153" s="22" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C153" s="19" t="s">
         <v>39</v>
@@ -4587,7 +4587,7 @@
         <v>149</v>
       </c>
       <c r="B154" s="22" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C154" s="19" t="s">
         <v>39</v>
@@ -4606,7 +4606,7 @@
         <v>150</v>
       </c>
       <c r="B155" s="22" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C155" s="19" t="s">
         <v>39</v>
@@ -4625,7 +4625,7 @@
         <v>151</v>
       </c>
       <c r="B156" s="22" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C156" s="19" t="s">
         <v>39</v>
@@ -4644,7 +4644,7 @@
         <v>152</v>
       </c>
       <c r="B157" s="22" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C157" s="19" t="s">
         <v>39</v>
@@ -4663,7 +4663,7 @@
         <v>153</v>
       </c>
       <c r="B158" s="22" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C158" s="19" t="s">
         <v>39</v>
@@ -4684,7 +4684,7 @@
         <v>154</v>
       </c>
       <c r="B159" s="22" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C159" s="19" t="s">
         <v>39</v>
@@ -4705,7 +4705,7 @@
         <v>155</v>
       </c>
       <c r="B160" s="22" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C160" s="19" t="s">
         <v>39</v>
@@ -4726,7 +4726,7 @@
         <v>156</v>
       </c>
       <c r="B161" s="22" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C161" s="19" t="s">
         <v>39</v>
@@ -4747,7 +4747,7 @@
         <v>157</v>
       </c>
       <c r="B162" s="22" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C162" s="19" t="s">
         <v>39</v>
@@ -4766,7 +4766,7 @@
         <v>158</v>
       </c>
       <c r="B163" s="22" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C163" s="19" t="s">
         <v>39</v>
@@ -4785,7 +4785,7 @@
         <v>159</v>
       </c>
       <c r="B164" s="22" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C164" s="19" t="s">
         <v>39</v>
@@ -4804,7 +4804,7 @@
         <v>160</v>
       </c>
       <c r="B165" s="22" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C165" s="19" t="s">
         <v>39</v>
@@ -4823,7 +4823,7 @@
         <v>161</v>
       </c>
       <c r="B166" s="22" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C166" s="19" t="s">
         <v>39</v>
@@ -4842,7 +4842,7 @@
         <v>162</v>
       </c>
       <c r="B167" s="22" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C167" s="19" t="s">
         <v>39</v>
@@ -4861,7 +4861,7 @@
         <v>163</v>
       </c>
       <c r="B168" s="22" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C168" s="19" t="s">
         <v>39</v>
@@ -4880,7 +4880,7 @@
         <v>164</v>
       </c>
       <c r="B169" s="22" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C169" s="19" t="s">
         <v>39</v>
@@ -4899,7 +4899,7 @@
         <v>165</v>
       </c>
       <c r="B170" s="22" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C170" s="19" t="s">
         <v>39</v>
@@ -4918,7 +4918,7 @@
         <v>166</v>
       </c>
       <c r="B171" s="22" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C171" s="19" t="s">
         <v>39</v>
@@ -4937,7 +4937,7 @@
         <v>167</v>
       </c>
       <c r="B172" s="22" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C172" s="19" t="s">
         <v>39</v>
@@ -4956,7 +4956,7 @@
         <v>168</v>
       </c>
       <c r="B173" s="22" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C173" s="19" t="s">
         <v>39</v>
@@ -4975,7 +4975,7 @@
         <v>169</v>
       </c>
       <c r="B174" s="22" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C174" s="19" t="s">
         <v>39</v>
@@ -4994,7 +4994,7 @@
         <v>170</v>
       </c>
       <c r="B175" s="22" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C175" s="19" t="s">
         <v>39</v>
@@ -5013,7 +5013,7 @@
         <v>171</v>
       </c>
       <c r="B176" s="22" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C176" s="19" t="s">
         <v>39</v>
@@ -5032,7 +5032,7 @@
         <v>172</v>
       </c>
       <c r="B177" s="22" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C177" s="19" t="s">
         <v>39</v>
@@ -5051,7 +5051,7 @@
         <v>173</v>
       </c>
       <c r="B178" s="22" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C178" s="19" t="s">
         <v>39</v>
@@ -5070,7 +5070,7 @@
         <v>174</v>
       </c>
       <c r="B179" s="22" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C179" s="19" t="s">
         <v>39</v>
@@ -5089,7 +5089,7 @@
         <v>175</v>
       </c>
       <c r="B180" s="22" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C180" s="19" t="s">
         <v>39</v>
@@ -5108,7 +5108,7 @@
         <v>176</v>
       </c>
       <c r="B181" s="22" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C181" s="19" t="s">
         <v>39</v>
@@ -5127,7 +5127,7 @@
         <v>177</v>
       </c>
       <c r="B182" s="22" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C182" s="19" t="s">
         <v>39</v>
@@ -5146,7 +5146,7 @@
         <v>178</v>
       </c>
       <c r="B183" s="22" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C183" s="19" t="s">
         <v>39</v>
@@ -5165,7 +5165,7 @@
         <v>179</v>
       </c>
       <c r="B184" s="22" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C184" s="19" t="s">
         <v>39</v>
@@ -5184,7 +5184,7 @@
         <v>180</v>
       </c>
       <c r="B185" s="22" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C185" s="19" t="s">
         <v>39</v>
@@ -5203,7 +5203,7 @@
         <v>181</v>
       </c>
       <c r="B186" s="22" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C186" s="19" t="s">
         <v>39</v>
@@ -5222,7 +5222,7 @@
         <v>182</v>
       </c>
       <c r="B187" s="22" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C187" s="19" t="s">
         <v>39</v>
@@ -5241,7 +5241,7 @@
         <v>183</v>
       </c>
       <c r="B188" s="22" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C188" s="19" t="s">
         <v>39</v>
@@ -5260,7 +5260,7 @@
         <v>184</v>
       </c>
       <c r="B189" s="22" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C189" s="19" t="s">
         <v>39</v>
@@ -5279,7 +5279,7 @@
         <v>185</v>
       </c>
       <c r="B190" s="22" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C190" s="19" t="s">
         <v>39</v>
@@ -5298,7 +5298,7 @@
         <v>186</v>
       </c>
       <c r="B191" s="22" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C191" s="19" t="s">
         <v>39</v>
@@ -5317,7 +5317,7 @@
         <v>187</v>
       </c>
       <c r="B192" s="22" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C192" s="19" t="s">
         <v>39</v>
@@ -5336,7 +5336,7 @@
         <v>188</v>
       </c>
       <c r="B193" s="22" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C193" s="19" t="s">
         <v>39</v>
@@ -5355,7 +5355,7 @@
         <v>189</v>
       </c>
       <c r="B194" s="22" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C194" s="19" t="s">
         <v>39</v>
@@ -5374,7 +5374,7 @@
         <v>190</v>
       </c>
       <c r="B195" s="22" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C195" s="19" t="s">
         <v>39</v>
@@ -5393,7 +5393,7 @@
         <v>191</v>
       </c>
       <c r="B196" s="22" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C196" s="19" t="s">
         <v>39</v>
@@ -5412,7 +5412,7 @@
         <v>192</v>
       </c>
       <c r="B197" s="22" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C197" s="19" t="s">
         <v>39</v>
@@ -5433,7 +5433,7 @@
         <v>193</v>
       </c>
       <c r="B198" s="22" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C198" s="19" t="s">
         <v>39</v>
@@ -5452,7 +5452,7 @@
         <v>194</v>
       </c>
       <c r="B199" s="22" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C199" s="19" t="s">
         <v>39</v>
@@ -5471,7 +5471,7 @@
         <v>195</v>
       </c>
       <c r="B200" s="22" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C200" s="19" t="s">
         <v>39</v>
@@ -5492,7 +5492,7 @@
         <v>196</v>
       </c>
       <c r="B201" s="22" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C201" s="19" t="s">
         <v>39</v>
@@ -5513,7 +5513,7 @@
         <v>197</v>
       </c>
       <c r="B202" s="22" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C202" s="19" t="s">
         <v>39</v>
@@ -5534,7 +5534,7 @@
         <v>198</v>
       </c>
       <c r="B203" s="22" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C203" s="19" t="s">
         <v>39</v>
@@ -5553,7 +5553,7 @@
         <v>199</v>
       </c>
       <c r="B204" s="22" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C204" s="19" t="s">
         <v>39</v>
@@ -5572,7 +5572,7 @@
         <v>200</v>
       </c>
       <c r="B205" s="22" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C205" s="19" t="s">
         <v>39</v>
@@ -5591,7 +5591,7 @@
         <v>201</v>
       </c>
       <c r="B206" s="22" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C206" s="19" t="s">
         <v>39</v>
@@ -5612,7 +5612,7 @@
         <v>202</v>
       </c>
       <c r="B207" s="22" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C207" s="19" t="s">
         <v>39</v>
@@ -5631,7 +5631,7 @@
         <v>203</v>
       </c>
       <c r="B208" s="22" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C208" s="19" t="s">
         <v>39</v>
@@ -5650,7 +5650,7 @@
         <v>204</v>
       </c>
       <c r="B209" s="22" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C209" s="19" t="s">
         <v>39</v>
@@ -5669,7 +5669,7 @@
         <v>205</v>
       </c>
       <c r="B210" s="22" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C210" s="19" t="s">
         <v>39</v>
@@ -5688,7 +5688,7 @@
         <v>206</v>
       </c>
       <c r="B211" s="22" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C211" s="19" t="s">
         <v>39</v>
@@ -5707,7 +5707,7 @@
         <v>207</v>
       </c>
       <c r="B212" s="22" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C212" s="19" t="s">
         <v>39</v>
@@ -5726,7 +5726,7 @@
         <v>208</v>
       </c>
       <c r="B213" s="22" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C213" s="19" t="s">
         <v>39</v>
@@ -5745,7 +5745,7 @@
         <v>209</v>
       </c>
       <c r="B214" s="22" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C214" s="19" t="s">
         <v>39</v>
@@ -5764,7 +5764,7 @@
         <v>210</v>
       </c>
       <c r="B215" s="22" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C215" s="19" t="s">
         <v>39</v>
@@ -5783,7 +5783,7 @@
         <v>211</v>
       </c>
       <c r="B216" s="22" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C216" s="19" t="s">
         <v>39</v>
@@ -6008,47 +6008,47 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B19" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B20" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B21" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B22" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B23" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
   </sheetData>

--- a/GetAgent Docs/טבלה צהובה סופי.xlsx
+++ b/GetAgent Docs/טבלה צהובה סופי.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\www\Self Projects\GetAgent\GetAgent Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94B62449-C102-4B20-8933-F0EAABE5E279}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C8B9C24-D8CE-4F2D-ADFE-FCD3DB26AD1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2868" yWindow="1716" windowWidth="17280" windowHeight="7296" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="דרישות" sheetId="1" r:id="rId1"/>
@@ -21,8 +21,8 @@
     <definedName name="FuncReq">'סוגי דרישות'!$B$5:$B$6</definedName>
     <definedName name="HML">'סוגי דרישות'!#REF!</definedName>
     <definedName name="NFR">'סוגי דרישות'!$B$10:$B$14</definedName>
-    <definedName name="OLE_LINK1" localSheetId="0">דרישות!$B$50</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">דרישות!$A$3:$E$18</definedName>
+    <definedName name="OLE_LINK1" localSheetId="0">דרישות!$B$42</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">דרישות!$A$3:$E$15</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">דרישות!$4:$5</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
@@ -71,7 +71,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="731" uniqueCount="263">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="705" uniqueCount="255">
   <si>
     <t>זיהוי</t>
   </si>
@@ -196,15 +196,9 @@
     <t>באתר קיים סוג חשבון אחד</t>
   </si>
   <si>
-    <t>אפשר להירשם לחשבון באמצעות גוגל</t>
-  </si>
-  <si>
     <t>אפשר להירשם לחשבון באמצעות מייל</t>
   </si>
   <si>
-    <t>אפשר להירשם לחשבון באמצעות פייסבוק</t>
-  </si>
-  <si>
     <t>בכל חשבון אפשר לפתוח 2 סוגי פרופיל</t>
   </si>
   <si>
@@ -223,21 +217,12 @@
     <t>מתחת לשדות קלט, מוצג מקש 'התחבר'</t>
   </si>
   <si>
-    <t>בחלון ההתחברות מוצגים מקשים 'התחבר עם פייסבוק' ו- 'התחבר עם גוגל'</t>
-  </si>
-  <si>
     <t>בחלון ההתחברות מוצגת המילה 'או' שמפרידה בין החלק העליון לבין החלק התחתות של הדף</t>
   </si>
   <si>
     <t>בחלון ההתחברות בחלק התחתון מוצגים שדות קלט 'כתובת מייל' ו- 'סיסמה'</t>
   </si>
   <si>
-    <t>לחיצה על מקש 'התחבר עם פייסבוק' תקפיץ חלון 'התחברות עם פייסבוק'</t>
-  </si>
-  <si>
-    <t>לחיצה על מקש 'התחבר עם גוגל' תקפיץ חלון 'התחברות עם גוגל'</t>
-  </si>
-  <si>
     <t>לחיצה על מקש 'התחבר' כששדות הקלט 'כתובת מייל' ו- 'סיסמה' ריקים - תקפיץ הודעת שגיאה</t>
   </si>
   <si>
@@ -257,15 +242,6 @@
   </si>
   <si>
     <t>בחלון ההרשמה בחלק העליון מוצגת הכותרת 'הרשמה'</t>
-  </si>
-  <si>
-    <t>בחלון ההרשמה מוצגים המקשים 'הצטרף עם פייסבוק' ו- הצטרף עם גוגל'</t>
-  </si>
-  <si>
-    <t>לחיצה על מקש 'הצטרף עם גוגל' תקפיץ חלון 'הצטרף עם גוגל'</t>
-  </si>
-  <si>
-    <t>לחיצה עם מקש 'הצטרף עם פייסבוק' תקפיץ חלון 'הצטרף עם פייסבוק'</t>
   </si>
   <si>
     <t>בחלון ההרשמה בחלק האמצעי מוצגת המילה 'או' אשר מפרידה בין החלק העליון לתחתון בחלון</t>
@@ -1595,11 +1571,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:I222"/>
+  <dimension ref="A1:I214"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A86" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B101" sqref="B101"/>
+    <sheetView rightToLeft="1" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="5" topLeftCell="A186" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B210" sqref="B210"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -1676,7 +1652,7 @@
         <v>37</v>
       </c>
       <c r="I4" s="30" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
     </row>
     <row r="5" spans="1:9" s="3" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1718,7 +1694,7 @@
         <v>2</v>
       </c>
       <c r="B7" s="22" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C7" s="19" t="s">
         <v>33</v>
@@ -1757,8 +1733,8 @@
       <c r="A9" s="23">
         <v>4</v>
       </c>
-      <c r="B9" s="22" t="s">
-        <v>43</v>
+      <c r="B9" s="24" t="s">
+        <v>62</v>
       </c>
       <c r="C9" s="19" t="s">
         <v>33</v>
@@ -1766,20 +1742,18 @@
       <c r="D9" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="E9" s="21" t="s">
-        <v>28</v>
-      </c>
+      <c r="E9" s="21"/>
       <c r="F9" s="20"/>
       <c r="G9" s="22"/>
       <c r="H9" s="22"/>
       <c r="I9" s="22"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="23">
         <v>5</v>
       </c>
       <c r="B10" s="22" t="s">
-        <v>42</v>
+        <v>63</v>
       </c>
       <c r="C10" s="19" t="s">
         <v>33</v>
@@ -1787,20 +1761,18 @@
       <c r="D10" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="E10" s="21" t="s">
-        <v>28</v>
-      </c>
+      <c r="E10" s="21"/>
       <c r="F10" s="20"/>
       <c r="G10" s="22"/>
       <c r="H10" s="22"/>
       <c r="I10" s="22"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="23">
         <v>6</v>
       </c>
-      <c r="B11" s="24" t="s">
-        <v>70</v>
+      <c r="B11" s="22" t="s">
+        <v>43</v>
       </c>
       <c r="C11" s="19" t="s">
         <v>33</v>
@@ -1808,18 +1780,20 @@
       <c r="D11" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="E11" s="21"/>
+      <c r="E11" s="21" t="s">
+        <v>7</v>
+      </c>
       <c r="F11" s="20"/>
       <c r="G11" s="22"/>
       <c r="H11" s="22"/>
       <c r="I11" s="22"/>
     </row>
-    <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="23">
         <v>7</v>
       </c>
       <c r="B12" s="22" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="C12" s="19" t="s">
         <v>33</v>
@@ -1827,28 +1801,28 @@
       <c r="D12" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="E12" s="21"/>
+      <c r="E12" s="21" t="s">
+        <v>7</v>
+      </c>
       <c r="F12" s="20"/>
       <c r="G12" s="22"/>
       <c r="H12" s="22"/>
       <c r="I12" s="22"/>
     </row>
-    <row r="13" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="23">
         <v>8</v>
       </c>
       <c r="B13" s="22" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C13" s="19" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="D13" s="20" t="s">
-        <v>6</v>
-      </c>
-      <c r="E13" s="21" t="s">
-        <v>7</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="E13" s="21"/>
       <c r="F13" s="20"/>
       <c r="G13" s="22"/>
       <c r="H13" s="22"/>
@@ -1859,17 +1833,15 @@
         <v>9</v>
       </c>
       <c r="B14" s="22" t="s">
-        <v>68</v>
+        <v>45</v>
       </c>
       <c r="C14" s="19" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="D14" s="20" t="s">
-        <v>6</v>
-      </c>
-      <c r="E14" s="21" t="s">
-        <v>7</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="E14" s="21"/>
       <c r="F14" s="20"/>
       <c r="G14" s="22"/>
       <c r="H14" s="22"/>
@@ -1899,7 +1871,7 @@
         <v>11</v>
       </c>
       <c r="B16" s="22" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C16" s="19" t="s">
         <v>39</v>
@@ -1918,7 +1890,7 @@
         <v>12</v>
       </c>
       <c r="B17" s="22" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C17" s="19" t="s">
         <v>39</v>
@@ -1937,7 +1909,7 @@
         <v>13</v>
       </c>
       <c r="B18" s="22" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C18" s="19" t="s">
         <v>39</v>
@@ -1956,7 +1928,7 @@
         <v>14</v>
       </c>
       <c r="B19" s="22" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C19" s="19" t="s">
         <v>39</v>
@@ -1964,7 +1936,9 @@
       <c r="D19" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="E19" s="21"/>
+      <c r="E19" s="21" t="s">
+        <v>7</v>
+      </c>
       <c r="F19" s="20"/>
       <c r="G19" s="22"/>
       <c r="H19" s="22"/>
@@ -1975,7 +1949,7 @@
         <v>15</v>
       </c>
       <c r="B20" s="22" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C20" s="19" t="s">
         <v>39</v>
@@ -1983,7 +1957,9 @@
       <c r="D20" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="E20" s="21"/>
+      <c r="E20" s="21" t="s">
+        <v>7</v>
+      </c>
       <c r="F20" s="20"/>
       <c r="G20" s="22"/>
       <c r="H20" s="22"/>
@@ -1994,7 +1970,7 @@
         <v>16</v>
       </c>
       <c r="B21" s="22" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C21" s="19" t="s">
         <v>39</v>
@@ -2013,7 +1989,7 @@
         <v>17</v>
       </c>
       <c r="B22" s="22" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C22" s="19" t="s">
         <v>39</v>
@@ -2032,13 +2008,13 @@
         <v>18</v>
       </c>
       <c r="B23" s="22" t="s">
-        <v>49</v>
+        <v>254</v>
       </c>
       <c r="C23" s="19" t="s">
         <v>39</v>
       </c>
       <c r="D23" s="20" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E23" s="21"/>
       <c r="F23" s="20"/>
@@ -2051,17 +2027,15 @@
         <v>19</v>
       </c>
       <c r="B24" s="22" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C24" s="19" t="s">
         <v>39</v>
       </c>
       <c r="D24" s="20" t="s">
-        <v>6</v>
-      </c>
-      <c r="E24" s="21" t="s">
-        <v>7</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="E24" s="21"/>
       <c r="F24" s="20"/>
       <c r="G24" s="22"/>
       <c r="H24" s="22"/>
@@ -2072,17 +2046,15 @@
         <v>20</v>
       </c>
       <c r="B25" s="22" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C25" s="19" t="s">
         <v>39</v>
       </c>
       <c r="D25" s="20" t="s">
-        <v>6</v>
-      </c>
-      <c r="E25" s="21" t="s">
-        <v>7</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="E25" s="21"/>
       <c r="F25" s="20"/>
       <c r="G25" s="22"/>
       <c r="H25" s="22"/>
@@ -2093,13 +2065,13 @@
         <v>21</v>
       </c>
       <c r="B26" s="22" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="C26" s="19" t="s">
         <v>39</v>
       </c>
       <c r="D26" s="20" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E26" s="21"/>
       <c r="F26" s="20"/>
@@ -2112,7 +2084,7 @@
         <v>22</v>
       </c>
       <c r="B27" s="22" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C27" s="19" t="s">
         <v>39</v>
@@ -2131,13 +2103,13 @@
         <v>23</v>
       </c>
       <c r="B28" s="22" t="s">
-        <v>262</v>
+        <v>57</v>
       </c>
       <c r="C28" s="19" t="s">
         <v>39</v>
       </c>
       <c r="D28" s="20" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E28" s="21"/>
       <c r="F28" s="20"/>
@@ -2150,7 +2122,7 @@
         <v>24</v>
       </c>
       <c r="B29" s="22" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C29" s="19" t="s">
         <v>39</v>
@@ -2169,13 +2141,13 @@
         <v>25</v>
       </c>
       <c r="B30" s="22" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C30" s="19" t="s">
         <v>39</v>
       </c>
       <c r="D30" s="20" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E30" s="21"/>
       <c r="F30" s="20"/>
@@ -2188,15 +2160,17 @@
         <v>26</v>
       </c>
       <c r="B31" s="22" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="C31" s="19" t="s">
         <v>39</v>
       </c>
       <c r="D31" s="20" t="s">
-        <v>6</v>
-      </c>
-      <c r="E31" s="21"/>
+        <v>10</v>
+      </c>
+      <c r="E31" s="21" t="s">
+        <v>7</v>
+      </c>
       <c r="F31" s="20"/>
       <c r="G31" s="22"/>
       <c r="H31" s="22"/>
@@ -2207,13 +2181,13 @@
         <v>27</v>
       </c>
       <c r="B32" s="22" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="C32" s="19" t="s">
         <v>39</v>
       </c>
       <c r="D32" s="20" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E32" s="21"/>
       <c r="F32" s="20"/>
@@ -2226,7 +2200,7 @@
         <v>28</v>
       </c>
       <c r="B33" s="22" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="C33" s="19" t="s">
         <v>39</v>
@@ -2234,7 +2208,9 @@
       <c r="D33" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="E33" s="21"/>
+      <c r="E33" s="21" t="s">
+        <v>7</v>
+      </c>
       <c r="F33" s="20"/>
       <c r="G33" s="22"/>
       <c r="H33" s="22"/>
@@ -2245,7 +2221,7 @@
         <v>29</v>
       </c>
       <c r="B34" s="22" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C34" s="19" t="s">
         <v>39</v>
@@ -2259,20 +2235,22 @@
       <c r="H34" s="22"/>
       <c r="I34" s="22"/>
     </row>
-    <row r="35" spans="1:9" ht="28.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="23">
         <v>30</v>
       </c>
       <c r="B35" s="22" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="C35" s="19" t="s">
         <v>39</v>
       </c>
       <c r="D35" s="20" t="s">
-        <v>6</v>
-      </c>
-      <c r="E35" s="21"/>
+        <v>10</v>
+      </c>
+      <c r="E35" s="21" t="s">
+        <v>7</v>
+      </c>
       <c r="F35" s="20"/>
       <c r="G35" s="22"/>
       <c r="H35" s="22"/>
@@ -2283,13 +2261,13 @@
         <v>31</v>
       </c>
       <c r="B36" s="22" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="C36" s="19" t="s">
         <v>39</v>
       </c>
       <c r="D36" s="20" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E36" s="21"/>
       <c r="F36" s="20"/>
@@ -2302,7 +2280,7 @@
         <v>32</v>
       </c>
       <c r="B37" s="22" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C37" s="19" t="s">
         <v>39</v>
@@ -2310,7 +2288,9 @@
       <c r="D37" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="E37" s="21"/>
+      <c r="E37" s="21" t="s">
+        <v>7</v>
+      </c>
       <c r="F37" s="20"/>
       <c r="G37" s="22"/>
       <c r="H37" s="22"/>
@@ -2321,7 +2301,7 @@
         <v>33</v>
       </c>
       <c r="B38" s="22" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C38" s="19" t="s">
         <v>39</v>
@@ -2361,15 +2341,17 @@
         <v>35</v>
       </c>
       <c r="B40" s="22" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="C40" s="19" t="s">
         <v>39</v>
       </c>
       <c r="D40" s="20" t="s">
-        <v>6</v>
-      </c>
-      <c r="E40" s="21"/>
+        <v>10</v>
+      </c>
+      <c r="E40" s="21" t="s">
+        <v>7</v>
+      </c>
       <c r="F40" s="20"/>
       <c r="G40" s="22"/>
       <c r="H40" s="22"/>
@@ -2380,17 +2362,15 @@
         <v>36</v>
       </c>
       <c r="B41" s="22" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="C41" s="19" t="s">
         <v>39</v>
       </c>
       <c r="D41" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="E41" s="21" t="s">
-        <v>7</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="E41" s="21"/>
       <c r="F41" s="20"/>
       <c r="G41" s="22"/>
       <c r="H41" s="22"/>
@@ -2401,7 +2381,7 @@
         <v>37</v>
       </c>
       <c r="B42" s="22" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="C42" s="19" t="s">
         <v>39</v>
@@ -2420,13 +2400,13 @@
         <v>38</v>
       </c>
       <c r="B43" s="22" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="C43" s="19" t="s">
         <v>39</v>
       </c>
       <c r="D43" s="20" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E43" s="21" t="s">
         <v>7</v>
@@ -2436,12 +2416,12 @@
       <c r="H43" s="22"/>
       <c r="I43" s="22"/>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:9" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="23">
         <v>39</v>
       </c>
       <c r="B44" s="22" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C44" s="19" t="s">
         <v>39</v>
@@ -2449,7 +2429,9 @@
       <c r="D44" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="E44" s="21"/>
+      <c r="E44" s="21" t="s">
+        <v>7</v>
+      </c>
       <c r="F44" s="20"/>
       <c r="G44" s="22"/>
       <c r="H44" s="22"/>
@@ -2460,13 +2442,13 @@
         <v>40</v>
       </c>
       <c r="B45" s="22" t="s">
-        <v>76</v>
+        <v>93</v>
       </c>
       <c r="C45" s="19" t="s">
         <v>39</v>
       </c>
       <c r="D45" s="20" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E45" s="21" t="s">
         <v>7</v>
@@ -2481,7 +2463,7 @@
         <v>41</v>
       </c>
       <c r="B46" s="22" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C46" s="19" t="s">
         <v>39</v>
@@ -2500,13 +2482,13 @@
         <v>42</v>
       </c>
       <c r="B47" s="22" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C47" s="19" t="s">
         <v>39</v>
       </c>
       <c r="D47" s="20" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E47" s="21" t="s">
         <v>7</v>
@@ -2521,13 +2503,13 @@
         <v>43</v>
       </c>
       <c r="B48" s="22" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C48" s="19" t="s">
         <v>39</v>
       </c>
       <c r="D48" s="20" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E48" s="21" t="s">
         <v>7</v>
@@ -2542,7 +2524,7 @@
         <v>44</v>
       </c>
       <c r="B49" s="22" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="C49" s="19" t="s">
         <v>39</v>
@@ -2550,7 +2532,9 @@
       <c r="D49" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="E49" s="21"/>
+      <c r="E49" s="21" t="s">
+        <v>7</v>
+      </c>
       <c r="F49" s="20"/>
       <c r="G49" s="22"/>
       <c r="H49" s="22"/>
@@ -2561,7 +2545,7 @@
         <v>45</v>
       </c>
       <c r="B50" s="22" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="C50" s="19" t="s">
         <v>39</v>
@@ -2580,7 +2564,7 @@
         <v>46</v>
       </c>
       <c r="B51" s="22" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C51" s="19" t="s">
         <v>39</v>
@@ -2588,20 +2572,18 @@
       <c r="D51" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="E51" s="21" t="s">
-        <v>7</v>
-      </c>
+      <c r="E51" s="21"/>
       <c r="F51" s="20"/>
       <c r="G51" s="22"/>
       <c r="H51" s="22"/>
       <c r="I51" s="22"/>
     </row>
-    <row r="52" spans="1:9" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" s="23">
         <v>47</v>
       </c>
       <c r="B52" s="22" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C52" s="19" t="s">
         <v>39</v>
@@ -2609,20 +2591,18 @@
       <c r="D52" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="E52" s="21" t="s">
-        <v>7</v>
-      </c>
+      <c r="E52" s="21"/>
       <c r="F52" s="20"/>
       <c r="G52" s="22"/>
       <c r="H52" s="22"/>
       <c r="I52" s="22"/>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A53" s="23">
         <v>48</v>
       </c>
       <c r="B53" s="22" t="s">
-        <v>101</v>
+        <v>85</v>
       </c>
       <c r="C53" s="19" t="s">
         <v>39</v>
@@ -2631,7 +2611,7 @@
         <v>6</v>
       </c>
       <c r="E53" s="21" t="s">
-        <v>7</v>
+        <v>29</v>
       </c>
       <c r="F53" s="20"/>
       <c r="G53" s="22"/>
@@ -2643,7 +2623,7 @@
         <v>49</v>
       </c>
       <c r="B54" s="22" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C54" s="19" t="s">
         <v>39</v>
@@ -2657,12 +2637,12 @@
       <c r="H54" s="22"/>
       <c r="I54" s="22"/>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:9" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="23">
         <v>50</v>
       </c>
       <c r="B55" s="22" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C55" s="19" t="s">
         <v>39</v>
@@ -2670,9 +2650,7 @@
       <c r="D55" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="E55" s="21" t="s">
-        <v>7</v>
-      </c>
+      <c r="E55" s="21"/>
       <c r="F55" s="20"/>
       <c r="G55" s="22"/>
       <c r="H55" s="22"/>
@@ -2683,7 +2661,7 @@
         <v>51</v>
       </c>
       <c r="B56" s="22" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C56" s="19" t="s">
         <v>39</v>
@@ -2691,9 +2669,7 @@
       <c r="D56" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="E56" s="21" t="s">
-        <v>7</v>
-      </c>
+      <c r="E56" s="21"/>
       <c r="F56" s="20"/>
       <c r="G56" s="22"/>
       <c r="H56" s="22"/>
@@ -2704,7 +2680,7 @@
         <v>52</v>
       </c>
       <c r="B57" s="22" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="C57" s="19" t="s">
         <v>39</v>
@@ -2725,7 +2701,7 @@
         <v>53</v>
       </c>
       <c r="B58" s="22" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="C58" s="19" t="s">
         <v>39</v>
@@ -2733,7 +2709,9 @@
       <c r="D58" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="E58" s="21"/>
+      <c r="E58" s="21" t="s">
+        <v>7</v>
+      </c>
       <c r="F58" s="20"/>
       <c r="G58" s="22"/>
       <c r="H58" s="22"/>
@@ -2771,28 +2749,28 @@
       <c r="D60" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="E60" s="21"/>
+      <c r="E60" s="21" t="s">
+        <v>7</v>
+      </c>
       <c r="F60" s="20"/>
       <c r="G60" s="22"/>
       <c r="H60" s="22"/>
       <c r="I60" s="22"/>
     </row>
-    <row r="61" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61" s="23">
         <v>56</v>
       </c>
       <c r="B61" s="22" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C61" s="19" t="s">
         <v>39</v>
       </c>
       <c r="D61" s="20" t="s">
-        <v>6</v>
-      </c>
-      <c r="E61" s="21" t="s">
-        <v>29</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="E61" s="21"/>
       <c r="F61" s="20"/>
       <c r="G61" s="22"/>
       <c r="H61" s="22"/>
@@ -2803,13 +2781,13 @@
         <v>57</v>
       </c>
       <c r="B62" s="22" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C62" s="19" t="s">
         <v>39</v>
       </c>
       <c r="D62" s="20" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E62" s="21"/>
       <c r="F62" s="20"/>
@@ -2817,18 +2795,18 @@
       <c r="H62" s="22"/>
       <c r="I62" s="22"/>
     </row>
-    <row r="63" spans="1:9" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63" s="23">
         <v>58</v>
       </c>
       <c r="B63" s="22" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C63" s="19" t="s">
         <v>39</v>
       </c>
       <c r="D63" s="20" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E63" s="21"/>
       <c r="F63" s="20"/>
@@ -2836,18 +2814,18 @@
       <c r="H63" s="22"/>
       <c r="I63" s="22"/>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A64" s="23">
         <v>59</v>
       </c>
       <c r="B64" s="22" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="C64" s="19" t="s">
         <v>39</v>
       </c>
       <c r="D64" s="20" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E64" s="21"/>
       <c r="F64" s="20"/>
@@ -2866,7 +2844,7 @@
         <v>39</v>
       </c>
       <c r="D65" s="20" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E65" s="21" t="s">
         <v>7</v>
@@ -2887,7 +2865,7 @@
         <v>39</v>
       </c>
       <c r="D66" s="20" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E66" s="21" t="s">
         <v>7</v>
@@ -2902,15 +2880,17 @@
         <v>62</v>
       </c>
       <c r="B67" s="22" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C67" s="19" t="s">
         <v>39</v>
       </c>
       <c r="D67" s="20" t="s">
-        <v>6</v>
-      </c>
-      <c r="E67" s="21"/>
+        <v>10</v>
+      </c>
+      <c r="E67" s="21" t="s">
+        <v>7</v>
+      </c>
       <c r="F67" s="20"/>
       <c r="G67" s="22"/>
       <c r="H67" s="22"/>
@@ -2921,7 +2901,7 @@
         <v>63</v>
       </c>
       <c r="B68" s="22" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C68" s="19" t="s">
         <v>39</v>
@@ -2929,9 +2909,7 @@
       <c r="D68" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="E68" s="21" t="s">
-        <v>7</v>
-      </c>
+      <c r="E68" s="21"/>
       <c r="F68" s="20"/>
       <c r="G68" s="22"/>
       <c r="H68" s="22"/>
@@ -2948,7 +2926,7 @@
         <v>39</v>
       </c>
       <c r="D69" s="20" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E69" s="21"/>
       <c r="F69" s="20"/>
@@ -2967,7 +2945,7 @@
         <v>39</v>
       </c>
       <c r="D70" s="20" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E70" s="21"/>
       <c r="F70" s="20"/>
@@ -2986,7 +2964,7 @@
         <v>39</v>
       </c>
       <c r="D71" s="20" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E71" s="21"/>
       <c r="F71" s="20"/>
@@ -2994,18 +2972,18 @@
       <c r="H71" s="22"/>
       <c r="I71" s="22"/>
     </row>
-    <row r="72" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A72" s="23">
         <v>67</v>
       </c>
       <c r="B72" s="22" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C72" s="19" t="s">
         <v>39</v>
       </c>
       <c r="D72" s="20" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E72" s="21"/>
       <c r="F72" s="20"/>
@@ -3018,17 +2996,15 @@
         <v>68</v>
       </c>
       <c r="B73" s="22" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C73" s="19" t="s">
         <v>39</v>
       </c>
       <c r="D73" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="E73" s="21" t="s">
-        <v>7</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="E73" s="21"/>
       <c r="F73" s="20"/>
       <c r="G73" s="22"/>
       <c r="H73" s="22"/>
@@ -3039,17 +3015,15 @@
         <v>69</v>
       </c>
       <c r="B74" s="22" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C74" s="19" t="s">
         <v>39</v>
       </c>
       <c r="D74" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="E74" s="21" t="s">
-        <v>7</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="E74" s="21"/>
       <c r="F74" s="20"/>
       <c r="G74" s="22"/>
       <c r="H74" s="22"/>
@@ -3066,11 +3040,9 @@
         <v>39</v>
       </c>
       <c r="D75" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="E75" s="21" t="s">
-        <v>7</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="E75" s="21"/>
       <c r="F75" s="20"/>
       <c r="G75" s="22"/>
       <c r="H75" s="22"/>
@@ -3081,7 +3053,7 @@
         <v>71</v>
       </c>
       <c r="B76" s="22" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C76" s="19" t="s">
         <v>39</v>
@@ -3100,7 +3072,7 @@
         <v>72</v>
       </c>
       <c r="B77" s="22" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C77" s="19" t="s">
         <v>39</v>
@@ -3133,18 +3105,18 @@
       <c r="H78" s="22"/>
       <c r="I78" s="22"/>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A79" s="23">
         <v>74</v>
       </c>
       <c r="B79" s="22" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="C79" s="19" t="s">
         <v>39</v>
       </c>
       <c r="D79" s="20" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E79" s="21"/>
       <c r="F79" s="20"/>
@@ -3157,15 +3129,17 @@
         <v>75</v>
       </c>
       <c r="B80" s="22" t="s">
-        <v>113</v>
+        <v>123</v>
       </c>
       <c r="C80" s="19" t="s">
         <v>39</v>
       </c>
       <c r="D80" s="20" t="s">
-        <v>6</v>
-      </c>
-      <c r="E80" s="21"/>
+        <v>10</v>
+      </c>
+      <c r="E80" s="21" t="s">
+        <v>7</v>
+      </c>
       <c r="F80" s="20"/>
       <c r="G80" s="22"/>
       <c r="H80" s="22"/>
@@ -3176,15 +3150,17 @@
         <v>76</v>
       </c>
       <c r="B81" s="22" t="s">
-        <v>114</v>
+        <v>124</v>
       </c>
       <c r="C81" s="19" t="s">
         <v>39</v>
       </c>
       <c r="D81" s="20" t="s">
-        <v>6</v>
-      </c>
-      <c r="E81" s="21"/>
+        <v>10</v>
+      </c>
+      <c r="E81" s="21" t="s">
+        <v>7</v>
+      </c>
       <c r="F81" s="20"/>
       <c r="G81" s="22"/>
       <c r="H81" s="22"/>
@@ -3195,7 +3171,7 @@
         <v>77</v>
       </c>
       <c r="B82" s="22" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C82" s="19" t="s">
         <v>39</v>
@@ -3214,7 +3190,7 @@
         <v>78</v>
       </c>
       <c r="B83" s="22" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C83" s="19" t="s">
         <v>39</v>
@@ -3252,7 +3228,7 @@
         <v>80</v>
       </c>
       <c r="B85" s="22" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="C85" s="19" t="s">
         <v>39</v>
@@ -3271,7 +3247,7 @@
         <v>81</v>
       </c>
       <c r="B86" s="22" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C86" s="19" t="s">
         <v>39</v>
@@ -3285,18 +3261,18 @@
       <c r="H86" s="22"/>
       <c r="I86" s="22"/>
     </row>
-    <row r="87" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A87" s="23">
         <v>82</v>
       </c>
       <c r="B87" s="22" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C87" s="19" t="s">
         <v>39</v>
       </c>
       <c r="D87" s="20" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E87" s="21"/>
       <c r="F87" s="20"/>
@@ -3309,17 +3285,15 @@
         <v>83</v>
       </c>
       <c r="B88" s="22" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="C88" s="19" t="s">
         <v>39</v>
       </c>
       <c r="D88" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="E88" s="21" t="s">
-        <v>7</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="E88" s="21"/>
       <c r="F88" s="20"/>
       <c r="G88" s="22"/>
       <c r="H88" s="22"/>
@@ -3330,7 +3304,7 @@
         <v>84</v>
       </c>
       <c r="B89" s="22" t="s">
-        <v>132</v>
+        <v>112</v>
       </c>
       <c r="C89" s="19" t="s">
         <v>39</v>
@@ -3338,9 +3312,7 @@
       <c r="D89" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="E89" s="21" t="s">
-        <v>7</v>
-      </c>
+      <c r="E89" s="21"/>
       <c r="F89" s="20"/>
       <c r="G89" s="22"/>
       <c r="H89" s="22"/>
@@ -3351,7 +3323,7 @@
         <v>85</v>
       </c>
       <c r="B90" s="22" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="C90" s="19" t="s">
         <v>39</v>
@@ -3365,12 +3337,12 @@
       <c r="H90" s="22"/>
       <c r="I90" s="22"/>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A91" s="23">
         <v>86</v>
       </c>
       <c r="B91" s="22" t="s">
-        <v>125</v>
+        <v>114</v>
       </c>
       <c r="C91" s="19" t="s">
         <v>39</v>
@@ -3389,13 +3361,13 @@
         <v>87</v>
       </c>
       <c r="B92" s="22" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C92" s="19" t="s">
         <v>39</v>
       </c>
       <c r="D92" s="20" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E92" s="21"/>
       <c r="F92" s="20"/>
@@ -3408,13 +3380,13 @@
         <v>88</v>
       </c>
       <c r="B93" s="22" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C93" s="19" t="s">
         <v>39</v>
       </c>
       <c r="D93" s="20" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E93" s="21"/>
       <c r="F93" s="20"/>
@@ -3427,7 +3399,7 @@
         <v>89</v>
       </c>
       <c r="B94" s="22" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C94" s="19" t="s">
         <v>39</v>
@@ -3446,7 +3418,7 @@
         <v>90</v>
       </c>
       <c r="B95" s="22" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="C95" s="19" t="s">
         <v>39</v>
@@ -3454,18 +3426,20 @@
       <c r="D95" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="E95" s="21"/>
+      <c r="E95" s="21" t="s">
+        <v>7</v>
+      </c>
       <c r="F95" s="20"/>
       <c r="G95" s="22"/>
       <c r="H95" s="22"/>
       <c r="I95" s="22"/>
     </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A96" s="23">
         <v>91</v>
       </c>
       <c r="B96" s="22" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C96" s="19" t="s">
         <v>39</v>
@@ -3484,13 +3458,13 @@
         <v>92</v>
       </c>
       <c r="B97" s="22" t="s">
-        <v>120</v>
+        <v>148</v>
       </c>
       <c r="C97" s="19" t="s">
         <v>39</v>
       </c>
       <c r="D97" s="20" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E97" s="21"/>
       <c r="F97" s="20"/>
@@ -3503,13 +3477,13 @@
         <v>93</v>
       </c>
       <c r="B98" s="22" t="s">
-        <v>121</v>
+        <v>133</v>
       </c>
       <c r="C98" s="19" t="s">
         <v>39</v>
       </c>
       <c r="D98" s="20" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E98" s="21"/>
       <c r="F98" s="20"/>
@@ -3517,18 +3491,18 @@
       <c r="H98" s="22"/>
       <c r="I98" s="22"/>
     </row>
-    <row r="99" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:9" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A99" s="23">
         <v>94</v>
       </c>
       <c r="B99" s="22" t="s">
-        <v>122</v>
+        <v>130</v>
       </c>
       <c r="C99" s="19" t="s">
         <v>39</v>
       </c>
       <c r="D99" s="20" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E99" s="21"/>
       <c r="F99" s="20"/>
@@ -3541,13 +3515,13 @@
         <v>95</v>
       </c>
       <c r="B100" s="22" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="C100" s="19" t="s">
         <v>39</v>
       </c>
       <c r="D100" s="20" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E100" s="21"/>
       <c r="F100" s="20"/>
@@ -3560,13 +3534,13 @@
         <v>96</v>
       </c>
       <c r="B101" s="22" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C101" s="19" t="s">
         <v>39</v>
       </c>
       <c r="D101" s="20" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E101" s="21"/>
       <c r="F101" s="20"/>
@@ -3579,7 +3553,7 @@
         <v>97</v>
       </c>
       <c r="B102" s="22" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="C102" s="19" t="s">
         <v>39</v>
@@ -3598,28 +3572,26 @@
         <v>98</v>
       </c>
       <c r="B103" s="22" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="C103" s="19" t="s">
         <v>39</v>
       </c>
       <c r="D103" s="20" t="s">
-        <v>6</v>
-      </c>
-      <c r="E103" s="21" t="s">
-        <v>7</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="E103" s="21"/>
       <c r="F103" s="20"/>
       <c r="G103" s="22"/>
       <c r="H103" s="22"/>
       <c r="I103" s="22"/>
     </row>
-    <row r="104" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A104" s="23">
         <v>99</v>
       </c>
       <c r="B104" s="22" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C104" s="19" t="s">
         <v>39</v>
@@ -3638,15 +3610,15 @@
         <v>100</v>
       </c>
       <c r="B105" s="22" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="C105" s="19" t="s">
-        <v>39</v>
-      </c>
-      <c r="D105" s="20" t="s">
-        <v>6</v>
-      </c>
-      <c r="E105" s="21"/>
+        <v>151</v>
+      </c>
+      <c r="D105" s="20"/>
+      <c r="E105" s="21" t="s">
+        <v>29</v>
+      </c>
       <c r="F105" s="20"/>
       <c r="G105" s="22"/>
       <c r="H105" s="22"/>
@@ -3657,7 +3629,7 @@
         <v>101</v>
       </c>
       <c r="B106" s="22" t="s">
-        <v>141</v>
+        <v>152</v>
       </c>
       <c r="C106" s="19" t="s">
         <v>39</v>
@@ -3665,24 +3637,26 @@
       <c r="D106" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="E106" s="21"/>
+      <c r="E106" s="21" t="s">
+        <v>7</v>
+      </c>
       <c r="F106" s="20"/>
       <c r="G106" s="22"/>
       <c r="H106" s="22"/>
       <c r="I106" s="22"/>
     </row>
-    <row r="107" spans="1:9" ht="39.6" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A107" s="23">
         <v>102</v>
       </c>
       <c r="B107" s="22" t="s">
-        <v>138</v>
+        <v>153</v>
       </c>
       <c r="C107" s="19" t="s">
         <v>39</v>
       </c>
       <c r="D107" s="20" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E107" s="21"/>
       <c r="F107" s="20"/>
@@ -3695,15 +3669,17 @@
         <v>103</v>
       </c>
       <c r="B108" s="22" t="s">
-        <v>139</v>
+        <v>154</v>
       </c>
       <c r="C108" s="19" t="s">
         <v>39</v>
       </c>
       <c r="D108" s="20" t="s">
-        <v>6</v>
-      </c>
-      <c r="E108" s="21"/>
+        <v>10</v>
+      </c>
+      <c r="E108" s="21" t="s">
+        <v>7</v>
+      </c>
       <c r="F108" s="20"/>
       <c r="G108" s="22"/>
       <c r="H108" s="22"/>
@@ -3714,7 +3690,7 @@
         <v>104</v>
       </c>
       <c r="B109" s="22" t="s">
-        <v>140</v>
+        <v>156</v>
       </c>
       <c r="C109" s="19" t="s">
         <v>39</v>
@@ -3722,7 +3698,9 @@
       <c r="D109" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="E109" s="21"/>
+      <c r="E109" s="21" t="s">
+        <v>7</v>
+      </c>
       <c r="F109" s="20"/>
       <c r="G109" s="22"/>
       <c r="H109" s="22"/>
@@ -3733,7 +3711,7 @@
         <v>105</v>
       </c>
       <c r="B110" s="22" t="s">
-        <v>142</v>
+        <v>155</v>
       </c>
       <c r="C110" s="19" t="s">
         <v>39</v>
@@ -3741,7 +3719,9 @@
       <c r="D110" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="E110" s="21"/>
+      <c r="E110" s="21" t="s">
+        <v>7</v>
+      </c>
       <c r="F110" s="20"/>
       <c r="G110" s="22"/>
       <c r="H110" s="22"/>
@@ -3752,13 +3732,13 @@
         <v>106</v>
       </c>
       <c r="B111" s="22" t="s">
-        <v>144</v>
+        <v>157</v>
       </c>
       <c r="C111" s="19" t="s">
         <v>39</v>
       </c>
       <c r="D111" s="20" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E111" s="21"/>
       <c r="F111" s="20"/>
@@ -3771,7 +3751,7 @@
         <v>107</v>
       </c>
       <c r="B112" s="22" t="s">
-        <v>143</v>
+        <v>158</v>
       </c>
       <c r="C112" s="19" t="s">
         <v>39</v>
@@ -3790,15 +3770,15 @@
         <v>108</v>
       </c>
       <c r="B113" s="22" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C113" s="19" t="s">
-        <v>159</v>
-      </c>
-      <c r="D113" s="20"/>
-      <c r="E113" s="21" t="s">
-        <v>29</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="D113" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="E113" s="21"/>
       <c r="F113" s="20"/>
       <c r="G113" s="22"/>
       <c r="H113" s="22"/>
@@ -3815,11 +3795,9 @@
         <v>39</v>
       </c>
       <c r="D114" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="E114" s="21" t="s">
-        <v>7</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="E114" s="21"/>
       <c r="F114" s="20"/>
       <c r="G114" s="22"/>
       <c r="H114" s="22"/>
@@ -3855,7 +3833,7 @@
         <v>39</v>
       </c>
       <c r="D116" s="20" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E116" s="21" t="s">
         <v>7</v>
@@ -3870,7 +3848,7 @@
         <v>112</v>
       </c>
       <c r="B117" s="22" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C117" s="19" t="s">
         <v>39</v>
@@ -3878,9 +3856,7 @@
       <c r="D117" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="E117" s="21" t="s">
-        <v>7</v>
-      </c>
+      <c r="E117" s="21"/>
       <c r="F117" s="20"/>
       <c r="G117" s="22"/>
       <c r="H117" s="22"/>
@@ -3891,13 +3867,13 @@
         <v>113</v>
       </c>
       <c r="B118" s="22" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C118" s="19" t="s">
         <v>39</v>
       </c>
       <c r="D118" s="20" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E118" s="21" t="s">
         <v>7</v>
@@ -3918,9 +3894,11 @@
         <v>39</v>
       </c>
       <c r="D119" s="20" t="s">
-        <v>6</v>
-      </c>
-      <c r="E119" s="21"/>
+        <v>10</v>
+      </c>
+      <c r="E119" s="21" t="s">
+        <v>7</v>
+      </c>
       <c r="F119" s="20"/>
       <c r="G119" s="22"/>
       <c r="H119" s="22"/>
@@ -3937,9 +3915,11 @@
         <v>39</v>
       </c>
       <c r="D120" s="20" t="s">
-        <v>6</v>
-      </c>
-      <c r="E120" s="21"/>
+        <v>10</v>
+      </c>
+      <c r="E120" s="21" t="s">
+        <v>7</v>
+      </c>
       <c r="F120" s="20"/>
       <c r="G120" s="22"/>
       <c r="H120" s="22"/>
@@ -3956,7 +3936,7 @@
         <v>39</v>
       </c>
       <c r="D121" s="20" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E121" s="21"/>
       <c r="F121" s="20"/>
@@ -3975,7 +3955,7 @@
         <v>39</v>
       </c>
       <c r="D122" s="20" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E122" s="21"/>
       <c r="F122" s="20"/>
@@ -4013,11 +3993,9 @@
         <v>39</v>
       </c>
       <c r="D124" s="20" t="s">
-        <v>6</v>
-      </c>
-      <c r="E124" s="21" t="s">
-        <v>7</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="E124" s="21"/>
       <c r="F124" s="20"/>
       <c r="G124" s="22"/>
       <c r="H124" s="22"/>
@@ -4034,7 +4012,7 @@
         <v>39</v>
       </c>
       <c r="D125" s="20" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E125" s="21"/>
       <c r="F125" s="20"/>
@@ -4047,13 +4025,13 @@
         <v>121</v>
       </c>
       <c r="B126" s="22" t="s">
-        <v>172</v>
+        <v>188</v>
       </c>
       <c r="C126" s="19" t="s">
         <v>39</v>
       </c>
       <c r="D126" s="20" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E126" s="21" t="s">
         <v>7</v>
@@ -4068,7 +4046,7 @@
         <v>122</v>
       </c>
       <c r="B127" s="22" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C127" s="19" t="s">
         <v>39</v>
@@ -4076,9 +4054,7 @@
       <c r="D127" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="E127" s="21" t="s">
-        <v>7</v>
-      </c>
+      <c r="E127" s="21"/>
       <c r="F127" s="20"/>
       <c r="G127" s="22"/>
       <c r="H127" s="22"/>
@@ -4089,7 +4065,7 @@
         <v>123</v>
       </c>
       <c r="B128" s="22" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C128" s="19" t="s">
         <v>39</v>
@@ -4097,9 +4073,7 @@
       <c r="D128" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="E128" s="21" t="s">
-        <v>7</v>
-      </c>
+      <c r="E128" s="21"/>
       <c r="F128" s="20"/>
       <c r="G128" s="22"/>
       <c r="H128" s="22"/>
@@ -4110,13 +4084,13 @@
         <v>124</v>
       </c>
       <c r="B129" s="22" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C129" s="19" t="s">
         <v>39</v>
       </c>
       <c r="D129" s="20" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E129" s="21"/>
       <c r="F129" s="20"/>
@@ -4129,13 +4103,13 @@
         <v>125</v>
       </c>
       <c r="B130" s="22" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="C130" s="19" t="s">
         <v>39</v>
       </c>
       <c r="D130" s="20" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E130" s="21"/>
       <c r="F130" s="20"/>
@@ -4148,7 +4122,7 @@
         <v>126</v>
       </c>
       <c r="B131" s="22" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="C131" s="19" t="s">
         <v>39</v>
@@ -4162,19 +4136,13 @@
       <c r="H131" s="22"/>
       <c r="I131" s="22"/>
     </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A132" s="23">
         <v>127</v>
       </c>
-      <c r="B132" s="22" t="s">
-        <v>178</v>
-      </c>
-      <c r="C132" s="19" t="s">
-        <v>39</v>
-      </c>
-      <c r="D132" s="20" t="s">
-        <v>10</v>
-      </c>
+      <c r="B132" s="22"/>
+      <c r="C132" s="19"/>
+      <c r="D132" s="20"/>
       <c r="E132" s="21"/>
       <c r="F132" s="20"/>
       <c r="G132" s="22"/>
@@ -4186,13 +4154,13 @@
         <v>128</v>
       </c>
       <c r="B133" s="22" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="C133" s="19" t="s">
         <v>39</v>
       </c>
       <c r="D133" s="20" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E133" s="21"/>
       <c r="F133" s="20"/>
@@ -4205,13 +4173,13 @@
         <v>129</v>
       </c>
       <c r="B134" s="22" t="s">
-        <v>196</v>
+        <v>176</v>
       </c>
       <c r="C134" s="19" t="s">
         <v>39</v>
       </c>
       <c r="D134" s="20" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E134" s="21" t="s">
         <v>7</v>
@@ -4226,7 +4194,7 @@
         <v>130</v>
       </c>
       <c r="B135" s="22" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="C135" s="19" t="s">
         <v>39</v>
@@ -4234,7 +4202,9 @@
       <c r="D135" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="E135" s="21"/>
+      <c r="E135" s="21" t="s">
+        <v>7</v>
+      </c>
       <c r="F135" s="20"/>
       <c r="G135" s="22"/>
       <c r="H135" s="22"/>
@@ -4245,7 +4215,7 @@
         <v>131</v>
       </c>
       <c r="B136" s="22" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C136" s="19" t="s">
         <v>39</v>
@@ -4264,13 +4234,13 @@
         <v>132</v>
       </c>
       <c r="B137" s="22" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="C137" s="19" t="s">
         <v>39</v>
       </c>
       <c r="D137" s="20" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E137" s="21"/>
       <c r="F137" s="20"/>
@@ -4283,7 +4253,7 @@
         <v>133</v>
       </c>
       <c r="B138" s="22" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="C138" s="19" t="s">
         <v>39</v>
@@ -4302,7 +4272,7 @@
         <v>134</v>
       </c>
       <c r="B139" s="22" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="C139" s="19" t="s">
         <v>39</v>
@@ -4316,13 +4286,19 @@
       <c r="H139" s="22"/>
       <c r="I139" s="22"/>
     </row>
-    <row r="140" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A140" s="23">
         <v>135</v>
       </c>
-      <c r="B140" s="22"/>
-      <c r="C140" s="19"/>
-      <c r="D140" s="20"/>
+      <c r="B140" s="22" t="s">
+        <v>184</v>
+      </c>
+      <c r="C140" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="D140" s="20" t="s">
+        <v>10</v>
+      </c>
       <c r="E140" s="21"/>
       <c r="F140" s="20"/>
       <c r="G140" s="22"/>
@@ -4334,7 +4310,7 @@
         <v>136</v>
       </c>
       <c r="B141" s="22" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="C141" s="19" t="s">
         <v>39</v>
@@ -4353,7 +4329,7 @@
         <v>137</v>
       </c>
       <c r="B142" s="22" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="C142" s="19" t="s">
         <v>39</v>
@@ -4361,9 +4337,7 @@
       <c r="D142" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="E142" s="21" t="s">
-        <v>7</v>
-      </c>
+      <c r="E142" s="21"/>
       <c r="F142" s="20"/>
       <c r="G142" s="22"/>
       <c r="H142" s="22"/>
@@ -4374,7 +4348,7 @@
         <v>138</v>
       </c>
       <c r="B143" s="22" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="C143" s="19" t="s">
         <v>39</v>
@@ -4382,9 +4356,7 @@
       <c r="D143" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="E143" s="21" t="s">
-        <v>7</v>
-      </c>
+      <c r="E143" s="21"/>
       <c r="F143" s="20"/>
       <c r="G143" s="22"/>
       <c r="H143" s="22"/>
@@ -4395,15 +4367,17 @@
         <v>139</v>
       </c>
       <c r="B144" s="22" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="C144" s="19" t="s">
         <v>39</v>
       </c>
       <c r="D144" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="E144" s="21"/>
+        <v>6</v>
+      </c>
+      <c r="E144" s="21" t="s">
+        <v>7</v>
+      </c>
       <c r="F144" s="20"/>
       <c r="G144" s="22"/>
       <c r="H144" s="22"/>
@@ -4414,7 +4388,7 @@
         <v>140</v>
       </c>
       <c r="B145" s="22" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="C145" s="19" t="s">
         <v>39</v>
@@ -4433,7 +4407,7 @@
         <v>141</v>
       </c>
       <c r="B146" s="22" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C146" s="19" t="s">
         <v>39</v>
@@ -4452,13 +4426,13 @@
         <v>142</v>
       </c>
       <c r="B147" s="22" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C147" s="19" t="s">
         <v>39</v>
       </c>
       <c r="D147" s="20" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E147" s="21"/>
       <c r="F147" s="20"/>
@@ -4471,7 +4445,7 @@
         <v>143</v>
       </c>
       <c r="B148" s="22" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C148" s="19" t="s">
         <v>39</v>
@@ -4490,13 +4464,13 @@
         <v>144</v>
       </c>
       <c r="B149" s="22" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C149" s="19" t="s">
         <v>39</v>
       </c>
       <c r="D149" s="20" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E149" s="21"/>
       <c r="F149" s="20"/>
@@ -4509,7 +4483,7 @@
         <v>145</v>
       </c>
       <c r="B150" s="22" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C150" s="19" t="s">
         <v>39</v>
@@ -4517,7 +4491,9 @@
       <c r="D150" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="E150" s="21"/>
+      <c r="E150" s="21" t="s">
+        <v>7</v>
+      </c>
       <c r="F150" s="20"/>
       <c r="G150" s="22"/>
       <c r="H150" s="22"/>
@@ -4528,7 +4504,7 @@
         <v>146</v>
       </c>
       <c r="B151" s="22" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C151" s="19" t="s">
         <v>39</v>
@@ -4536,7 +4512,9 @@
       <c r="D151" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="E151" s="21"/>
+      <c r="E151" s="21" t="s">
+        <v>7</v>
+      </c>
       <c r="F151" s="20"/>
       <c r="G151" s="22"/>
       <c r="H151" s="22"/>
@@ -4553,7 +4531,7 @@
         <v>39</v>
       </c>
       <c r="D152" s="20" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E152" s="21" t="s">
         <v>7</v>
@@ -4576,7 +4554,9 @@
       <c r="D153" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="E153" s="21"/>
+      <c r="E153" s="21" t="s">
+        <v>7</v>
+      </c>
       <c r="F153" s="20"/>
       <c r="G153" s="22"/>
       <c r="H153" s="22"/>
@@ -4593,7 +4573,7 @@
         <v>39</v>
       </c>
       <c r="D154" s="20" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E154" s="21"/>
       <c r="F154" s="20"/>
@@ -4631,7 +4611,7 @@
         <v>39</v>
       </c>
       <c r="D156" s="20" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E156" s="21"/>
       <c r="F156" s="20"/>
@@ -4650,7 +4630,7 @@
         <v>39</v>
       </c>
       <c r="D157" s="20" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E157" s="21"/>
       <c r="F157" s="20"/>
@@ -4669,11 +4649,9 @@
         <v>39</v>
       </c>
       <c r="D158" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="E158" s="21" t="s">
-        <v>7</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="E158" s="21"/>
       <c r="F158" s="20"/>
       <c r="G158" s="22"/>
       <c r="H158" s="22"/>
@@ -4690,11 +4668,9 @@
         <v>39</v>
       </c>
       <c r="D159" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="E159" s="21" t="s">
-        <v>7</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="E159" s="21"/>
       <c r="F159" s="20"/>
       <c r="G159" s="22"/>
       <c r="H159" s="22"/>
@@ -4711,11 +4687,9 @@
         <v>39</v>
       </c>
       <c r="D160" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="E160" s="21" t="s">
-        <v>7</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="E160" s="21"/>
       <c r="F160" s="20"/>
       <c r="G160" s="22"/>
       <c r="H160" s="22"/>
@@ -4732,11 +4706,9 @@
         <v>39</v>
       </c>
       <c r="D161" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="E161" s="21" t="s">
-        <v>7</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="E161" s="21"/>
       <c r="F161" s="20"/>
       <c r="G161" s="22"/>
       <c r="H161" s="22"/>
@@ -4753,7 +4725,7 @@
         <v>39</v>
       </c>
       <c r="D162" s="20" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E162" s="21"/>
       <c r="F162" s="20"/>
@@ -4772,7 +4744,7 @@
         <v>39</v>
       </c>
       <c r="D163" s="20" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E163" s="21"/>
       <c r="F163" s="20"/>
@@ -5027,7 +4999,7 @@
       <c r="H176" s="22"/>
       <c r="I176" s="22"/>
     </row>
-    <row r="177" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A177" s="23">
         <v>172</v>
       </c>
@@ -5179,7 +5151,7 @@
       <c r="H184" s="22"/>
       <c r="I184" s="22"/>
     </row>
-    <row r="185" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A185" s="23">
         <v>180</v>
       </c>
@@ -5260,7 +5232,7 @@
         <v>184</v>
       </c>
       <c r="B189" s="22" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="C189" s="19" t="s">
         <v>39</v>
@@ -5268,7 +5240,9 @@
       <c r="D189" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="E189" s="21"/>
+      <c r="E189" s="21" t="s">
+        <v>7</v>
+      </c>
       <c r="F189" s="20"/>
       <c r="G189" s="22"/>
       <c r="H189" s="22"/>
@@ -5279,7 +5253,7 @@
         <v>185</v>
       </c>
       <c r="B190" s="22" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="C190" s="19" t="s">
         <v>39</v>
@@ -5298,7 +5272,7 @@
         <v>186</v>
       </c>
       <c r="B191" s="22" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C191" s="19" t="s">
         <v>39</v>
@@ -5317,7 +5291,7 @@
         <v>187</v>
       </c>
       <c r="B192" s="22" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="C192" s="19" t="s">
         <v>39</v>
@@ -5325,7 +5299,9 @@
       <c r="D192" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="E192" s="21"/>
+      <c r="E192" s="21" t="s">
+        <v>7</v>
+      </c>
       <c r="F192" s="20"/>
       <c r="G192" s="22"/>
       <c r="H192" s="22"/>
@@ -5344,7 +5320,9 @@
       <c r="D193" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="E193" s="21"/>
+      <c r="E193" s="21" t="s">
+        <v>7</v>
+      </c>
       <c r="F193" s="20"/>
       <c r="G193" s="22"/>
       <c r="H193" s="22"/>
@@ -5363,7 +5341,9 @@
       <c r="D194" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="E194" s="21"/>
+      <c r="E194" s="21" t="s">
+        <v>7</v>
+      </c>
       <c r="F194" s="20"/>
       <c r="G194" s="22"/>
       <c r="H194" s="22"/>
@@ -5412,7 +5392,7 @@
         <v>192</v>
       </c>
       <c r="B197" s="22" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C197" s="19" t="s">
         <v>39</v>
@@ -5420,20 +5400,18 @@
       <c r="D197" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="E197" s="21" t="s">
-        <v>7</v>
-      </c>
+      <c r="E197" s="21"/>
       <c r="F197" s="20"/>
       <c r="G197" s="22"/>
       <c r="H197" s="22"/>
       <c r="I197" s="22"/>
     </row>
-    <row r="198" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A198" s="23">
         <v>193</v>
       </c>
       <c r="B198" s="22" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="C198" s="19" t="s">
         <v>39</v>
@@ -5441,7 +5419,9 @@
       <c r="D198" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="E198" s="21"/>
+      <c r="E198" s="21" t="s">
+        <v>7</v>
+      </c>
       <c r="F198" s="20"/>
       <c r="G198" s="22"/>
       <c r="H198" s="22"/>
@@ -5452,7 +5432,7 @@
         <v>194</v>
       </c>
       <c r="B199" s="22" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="C199" s="19" t="s">
         <v>39</v>
@@ -5471,7 +5451,7 @@
         <v>195</v>
       </c>
       <c r="B200" s="22" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="C200" s="19" t="s">
         <v>39</v>
@@ -5479,9 +5459,7 @@
       <c r="D200" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="E200" s="21" t="s">
-        <v>7</v>
-      </c>
+      <c r="E200" s="21"/>
       <c r="F200" s="20"/>
       <c r="G200" s="22"/>
       <c r="H200" s="22"/>
@@ -5492,7 +5470,7 @@
         <v>196</v>
       </c>
       <c r="B201" s="22" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C201" s="19" t="s">
         <v>39</v>
@@ -5500,9 +5478,7 @@
       <c r="D201" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="E201" s="21" t="s">
-        <v>7</v>
-      </c>
+      <c r="E201" s="21"/>
       <c r="F201" s="20"/>
       <c r="G201" s="22"/>
       <c r="H201" s="22"/>
@@ -5521,9 +5497,7 @@
       <c r="D202" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="E202" s="21" t="s">
-        <v>7</v>
-      </c>
+      <c r="E202" s="21"/>
       <c r="F202" s="20"/>
       <c r="G202" s="22"/>
       <c r="H202" s="22"/>
@@ -5572,7 +5546,7 @@
         <v>200</v>
       </c>
       <c r="B205" s="22" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="C205" s="19" t="s">
         <v>39</v>
@@ -5586,12 +5560,12 @@
       <c r="H205" s="22"/>
       <c r="I205" s="22"/>
     </row>
-    <row r="206" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A206" s="23">
         <v>201</v>
       </c>
       <c r="B206" s="22" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C206" s="19" t="s">
         <v>39</v>
@@ -5599,9 +5573,7 @@
       <c r="D206" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="E206" s="21" t="s">
-        <v>7</v>
-      </c>
+      <c r="E206" s="21"/>
       <c r="F206" s="20"/>
       <c r="G206" s="22"/>
       <c r="H206" s="22"/>
@@ -5631,7 +5603,7 @@
         <v>203</v>
       </c>
       <c r="B208" s="22" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C208" s="19" t="s">
         <v>39</v>
@@ -5639,7 +5611,9 @@
       <c r="D208" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="E208" s="21"/>
+      <c r="E208" s="21" t="s">
+        <v>7</v>
+      </c>
       <c r="F208" s="20"/>
       <c r="G208" s="22"/>
       <c r="H208" s="22"/>
@@ -5647,17 +5621,11 @@
     </row>
     <row r="209" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A209" s="23">
-        <v>204</v>
-      </c>
-      <c r="B209" s="22" t="s">
-        <v>253</v>
-      </c>
-      <c r="C209" s="19" t="s">
-        <v>39</v>
-      </c>
-      <c r="D209" s="20" t="s">
-        <v>6</v>
-      </c>
+        <v>56</v>
+      </c>
+      <c r="B209" s="22"/>
+      <c r="C209" s="19"/>
+      <c r="D209" s="20"/>
       <c r="E209" s="21"/>
       <c r="F209" s="20"/>
       <c r="G209" s="22"/>
@@ -5666,17 +5634,11 @@
     </row>
     <row r="210" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A210" s="23">
-        <v>205</v>
-      </c>
-      <c r="B210" s="22" t="s">
-        <v>255</v>
-      </c>
-      <c r="C210" s="19" t="s">
-        <v>39</v>
-      </c>
-      <c r="D210" s="20" t="s">
-        <v>6</v>
-      </c>
+        <v>56</v>
+      </c>
+      <c r="B210" s="22"/>
+      <c r="C210" s="19"/>
+      <c r="D210" s="20"/>
       <c r="E210" s="21"/>
       <c r="F210" s="20"/>
       <c r="G210" s="22"/>
@@ -5685,17 +5647,11 @@
     </row>
     <row r="211" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A211" s="23">
-        <v>206</v>
-      </c>
-      <c r="B211" s="22" t="s">
-        <v>256</v>
-      </c>
-      <c r="C211" s="19" t="s">
-        <v>39</v>
-      </c>
-      <c r="D211" s="20" t="s">
-        <v>6</v>
-      </c>
+        <v>56</v>
+      </c>
+      <c r="B211" s="22"/>
+      <c r="C211" s="19"/>
+      <c r="D211" s="20"/>
       <c r="E211" s="21"/>
       <c r="F211" s="20"/>
       <c r="G211" s="22"/>
@@ -5704,17 +5660,11 @@
     </row>
     <row r="212" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A212" s="23">
-        <v>207</v>
-      </c>
-      <c r="B212" s="22" t="s">
-        <v>257</v>
-      </c>
-      <c r="C212" s="19" t="s">
-        <v>39</v>
-      </c>
-      <c r="D212" s="20" t="s">
-        <v>6</v>
-      </c>
+        <v>56</v>
+      </c>
+      <c r="B212" s="22"/>
+      <c r="C212" s="19"/>
+      <c r="D212" s="20"/>
       <c r="E212" s="21"/>
       <c r="F212" s="20"/>
       <c r="G212" s="22"/>
@@ -5722,144 +5672,14 @@
       <c r="I212" s="22"/>
     </row>
     <row r="213" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A213" s="23">
-        <v>208</v>
-      </c>
-      <c r="B213" s="22" t="s">
-        <v>259</v>
-      </c>
-      <c r="C213" s="19" t="s">
-        <v>39</v>
-      </c>
-      <c r="D213" s="20" t="s">
-        <v>6</v>
-      </c>
-      <c r="E213" s="21"/>
-      <c r="F213" s="20"/>
-      <c r="G213" s="22"/>
-      <c r="H213" s="22"/>
       <c r="I213" s="22"/>
     </row>
     <row r="214" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A214" s="23">
-        <v>209</v>
-      </c>
-      <c r="B214" s="22" t="s">
-        <v>258</v>
-      </c>
-      <c r="C214" s="19" t="s">
-        <v>39</v>
-      </c>
-      <c r="D214" s="20" t="s">
-        <v>6</v>
-      </c>
-      <c r="E214" s="21"/>
-      <c r="F214" s="20"/>
-      <c r="G214" s="22"/>
-      <c r="H214" s="22"/>
       <c r="I214" s="22"/>
     </row>
-    <row r="215" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A215" s="23">
-        <v>210</v>
-      </c>
-      <c r="B215" s="22" t="s">
-        <v>260</v>
-      </c>
-      <c r="C215" s="19" t="s">
-        <v>39</v>
-      </c>
-      <c r="D215" s="20" t="s">
-        <v>6</v>
-      </c>
-      <c r="E215" s="21"/>
-      <c r="F215" s="20"/>
-      <c r="G215" s="22"/>
-      <c r="H215" s="22"/>
-      <c r="I215" s="22"/>
-    </row>
-    <row r="216" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A216" s="23">
-        <v>211</v>
-      </c>
-      <c r="B216" s="22" t="s">
-        <v>261</v>
-      </c>
-      <c r="C216" s="19" t="s">
-        <v>39</v>
-      </c>
-      <c r="D216" s="20" t="s">
-        <v>6</v>
-      </c>
-      <c r="E216" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="F216" s="20"/>
-      <c r="G216" s="22"/>
-      <c r="H216" s="22"/>
-      <c r="I216" s="22"/>
-    </row>
-    <row r="217" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A217" s="23">
-        <v>56</v>
-      </c>
-      <c r="B217" s="22"/>
-      <c r="C217" s="19"/>
-      <c r="D217" s="20"/>
-      <c r="E217" s="21"/>
-      <c r="F217" s="20"/>
-      <c r="G217" s="22"/>
-      <c r="H217" s="22"/>
-      <c r="I217" s="22"/>
-    </row>
-    <row r="218" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A218" s="23">
-        <v>56</v>
-      </c>
-      <c r="B218" s="22"/>
-      <c r="C218" s="19"/>
-      <c r="D218" s="20"/>
-      <c r="E218" s="21"/>
-      <c r="F218" s="20"/>
-      <c r="G218" s="22"/>
-      <c r="H218" s="22"/>
-      <c r="I218" s="22"/>
-    </row>
-    <row r="219" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A219" s="23">
-        <v>56</v>
-      </c>
-      <c r="B219" s="22"/>
-      <c r="C219" s="19"/>
-      <c r="D219" s="20"/>
-      <c r="E219" s="21"/>
-      <c r="F219" s="20"/>
-      <c r="G219" s="22"/>
-      <c r="H219" s="22"/>
-      <c r="I219" s="22"/>
-    </row>
-    <row r="220" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A220" s="23">
-        <v>56</v>
-      </c>
-      <c r="B220" s="22"/>
-      <c r="C220" s="19"/>
-      <c r="D220" s="20"/>
-      <c r="E220" s="21"/>
-      <c r="F220" s="20"/>
-      <c r="G220" s="22"/>
-      <c r="H220" s="22"/>
-      <c r="I220" s="22"/>
-    </row>
-    <row r="221" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="I221" s="22"/>
-    </row>
-    <row r="222" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="I222" s="22"/>
-    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A6:F68">
-    <sortCondition ref="A6:A68"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A6:F60">
+    <sortCondition ref="A6:A60"/>
   </sortState>
   <mergeCells count="9">
     <mergeCell ref="C1:D2"/>
@@ -5874,10 +5694,10 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F6:F220 D6:D220" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F6:F212 D6:D212" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>FR</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E6:E220" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E6:E212" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>NFR</formula1>
     </dataValidation>
   </dataValidations>
@@ -5892,7 +5712,7 @@
           <x14:formula1>
             <xm:f>'סוגי דרישות'!$B$19:$B$23</xm:f>
           </x14:formula1>
-          <xm:sqref>G6:G220</xm:sqref>
+          <xm:sqref>G6:G212</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -6008,47 +5828,47 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="B19" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="B20" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="B21" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="B22" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="B23" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
     </row>
   </sheetData>
